--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,10 +62,22 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.961+/-0.001</t>
   </si>
   <si>
-    <t>0.944+/-0.0</t>
+    <t>0.945+/-0.0</t>
   </si>
   <si>
     <t>0.943</t>
@@ -74,214 +86,226 @@
     <t>0.974+/-0.001</t>
   </si>
   <si>
-    <t>0.956+/-0.011</t>
+    <t>0.957+/-0.011</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>0.922+/-0.002</t>
+  </si>
+  <si>
+    <t>0.895+/-0.014</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>9.816+/-0.149</t>
+  </si>
+  <si>
+    <t>0.933+/-0.001</t>
+  </si>
+  <si>
+    <t>0.927+/-0.0</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>0.949+/-0.001</t>
+  </si>
+  <si>
+    <t>0.944+/-0.013</t>
+  </si>
+  <si>
+    <t>0.87+/-0.003</t>
+  </si>
+  <si>
+    <t>0.861+/-0.013</t>
+  </si>
+  <si>
+    <t>0.865</t>
+  </si>
+  <si>
+    <t>2.044+/-0.086</t>
+  </si>
+  <si>
+    <t>0.964+/-0.001</t>
+  </si>
+  <si>
+    <t>0.947+/-0.0</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>0.968+/-0.002</t>
+  </si>
+  <si>
+    <t>0.948+/-0.014</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>0.936+/-0.001</t>
+  </si>
+  <si>
+    <t>0.91+/-0.014</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>8.655+/-0.151</t>
+  </si>
+  <si>
+    <t>0.905+/-0.006</t>
+  </si>
+  <si>
+    <t>0.898+/-0.0</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>0.975+/-0.003</t>
+  </si>
+  <si>
+    <t>0.972+/-0.008</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>0.771+/-0.018</t>
+  </si>
+  <si>
+    <t>0.753+/-0.032</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.784+/-0.035</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.99+/-0.0</t>
+  </si>
+  <si>
+    <t>0.986+/-0.0</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>0.977+/-0.001</t>
+  </si>
+  <si>
+    <t>0.964+/-0.012</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>0.968+/-0.013</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>7.463+/-0.114</t>
+  </si>
+  <si>
+    <t>0.984+/-0.0</t>
+  </si>
+  <si>
+    <t>0.982+/-0.0</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>0.952+/-0.002</t>
+  </si>
+  <si>
+    <t>0.944+/-0.017</t>
+  </si>
+  <si>
+    <t>0.97+/-0.002</t>
+  </si>
+  <si>
+    <t>0.965+/-0.012</t>
   </si>
   <si>
     <t>0.958</t>
   </si>
   <si>
-    <t>0.922+/-0.002</t>
-  </si>
-  <si>
-    <t>0.895+/-0.013</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>10.87+/-1.363</t>
-  </si>
-  <si>
-    <t>0.933+/-0.001</t>
-  </si>
-  <si>
-    <t>0.928+/-0.0</t>
-  </si>
-  <si>
-    <t>0.929</t>
-  </si>
-  <si>
-    <t>0.951+/-0.002</t>
-  </si>
-  <si>
-    <t>0.945+/-0.011</t>
-  </si>
-  <si>
-    <t>0.942</t>
-  </si>
-  <si>
-    <t>0.869+/-0.003</t>
-  </si>
-  <si>
-    <t>0.862+/-0.012</t>
-  </si>
-  <si>
-    <t>0.866</t>
-  </si>
-  <si>
-    <t>2.041+/-0.058</t>
-  </si>
-  <si>
-    <t>0.964+/-0.001</t>
-  </si>
-  <si>
-    <t>0.948+/-0.0</t>
-  </si>
-  <si>
-    <t>0.968+/-0.001</t>
-  </si>
-  <si>
-    <t>0.949+/-0.013</t>
-  </si>
-  <si>
-    <t>0.935+/-0.002</t>
-  </si>
-  <si>
-    <t>0.912+/-0.014</t>
-  </si>
-  <si>
-    <t>0.904</t>
-  </si>
-  <si>
-    <t>8.379+/-0.032</t>
-  </si>
-  <si>
-    <t>0.905+/-0.007</t>
-  </si>
-  <si>
-    <t>0.898+/-0.0</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.974+/-0.004</t>
-  </si>
-  <si>
-    <t>0.97+/-0.008</t>
-  </si>
-  <si>
-    <t>0.969</t>
-  </si>
-  <si>
-    <t>0.771+/-0.023</t>
-  </si>
-  <si>
-    <t>0.754+/-0.026</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.82+/-0.011</t>
-  </si>
-  <si>
-    <t>0.99+/-0.0</t>
-  </si>
-  <si>
-    <t>0.986+/-0.0</t>
-  </si>
-  <si>
-    <t>0.988</t>
-  </si>
-  <si>
-    <t>0.976+/-0.001</t>
-  </si>
-  <si>
-    <t>0.963+/-0.014</t>
-  </si>
-  <si>
-    <t>0.971</t>
-  </si>
-  <si>
-    <t>0.975+/-0.002</t>
-  </si>
-  <si>
-    <t>0.968+/-0.013</t>
-  </si>
-  <si>
-    <t>0.967</t>
-  </si>
-  <si>
-    <t>7.809+/-0.264</t>
-  </si>
-  <si>
-    <t>0.985+/-0.001</t>
-  </si>
-  <si>
-    <t>0.982+/-0.0</t>
-  </si>
-  <si>
-    <t>0.984</t>
-  </si>
-  <si>
-    <t>0.953+/-0.003</t>
-  </si>
-  <si>
-    <t>0.944+/-0.015</t>
-  </si>
-  <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>0.971+/-0.001</t>
-  </si>
-  <si>
-    <t>0.967+/-0.014</t>
-  </si>
-  <si>
-    <t>1.876+/-0.072</t>
-  </si>
-  <si>
-    <t>0.993+/-0.0</t>
+    <t>1.809+/-0.042</t>
+  </si>
+  <si>
+    <t>0.993+/-0.001</t>
+  </si>
+  <si>
+    <t>0.985+/-0.0</t>
+  </si>
+  <si>
+    <t>0.985</t>
   </si>
   <si>
     <t>0.98+/-0.002</t>
   </si>
   <si>
-    <t>0.96+/-0.01</t>
-  </si>
-  <si>
-    <t>0.962</t>
-  </si>
-  <si>
-    <t>0.985+/-0.003</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>7.617+/-0.482</t>
-  </si>
-  <si>
-    <t>0.904+/-0.007</t>
-  </si>
-  <si>
-    <t>0.899+/-0.0</t>
-  </si>
-  <si>
-    <t>0.918</t>
+    <t>0.958+/-0.012</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.986+/-0.002</t>
+  </si>
+  <si>
+    <t>0.968+/-0.014</t>
+  </si>
+  <si>
+    <t>7.577+/-0.123</t>
+  </si>
+  <si>
+    <t>0.894+/-0.012</t>
+  </si>
+  <si>
+    <t>0.888+/-0.0</t>
+  </si>
+  <si>
+    <t>0.911</t>
   </si>
   <si>
     <t>0.988+/-0.001</t>
   </si>
   <si>
-    <t>0.986+/-0.006</t>
-  </si>
-  <si>
-    <t>0.991</t>
-  </si>
-  <si>
-    <t>0.521+/-0.034</t>
-  </si>
-  <si>
-    <t>0.496+/-0.046</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.696+/-0.011</t>
+    <t>0.985+/-0.007</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.472+/-0.061</t>
+  </si>
+  <si>
+    <t>0.445+/-0.077</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.654+/-0.018</t>
   </si>
 </sst>
 </file>
@@ -670,16 +694,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2">
-        <v>0.6189445196211096</v>
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -687,19 +711,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>0.6189445196211096</v>
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -707,19 +731,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -727,19 +751,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -747,19 +771,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -767,19 +791,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -787,19 +811,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -807,19 +831,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -827,19 +851,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -847,19 +871,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -897,19 +921,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2">
-        <v>0.8014433919711321</v>
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -917,19 +941,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3">
-        <v>0.8014433919711321</v>
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -937,19 +961,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -957,19 +981,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -977,19 +1001,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -997,19 +1021,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1017,19 +1041,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1037,19 +1061,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1057,19 +1081,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1077,19 +1101,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas.xlsx
@@ -74,157 +74,157 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>0.961+/-0.001</t>
   </si>
   <si>
-    <t>0.945+/-0.0</t>
-  </si>
-  <si>
-    <t>0.943</t>
+    <t>0.944+/-0.0</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>0.975+/-0.001</t>
+  </si>
+  <si>
+    <t>0.957+/-0.011</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>0.923+/-0.002</t>
+  </si>
+  <si>
+    <t>0.895+/-0.014</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>14.358+/-1.054</t>
+  </si>
+  <si>
+    <t>0.933+/-0.001</t>
+  </si>
+  <si>
+    <t>0.928+/-0.0</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>0.951+/-0.002</t>
+  </si>
+  <si>
+    <t>0.945+/-0.011</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>0.869+/-0.003</t>
+  </si>
+  <si>
+    <t>0.862+/-0.012</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>2.556+/-0.042</t>
+  </si>
+  <si>
+    <t>0.964+/-0.001</t>
+  </si>
+  <si>
+    <t>0.948+/-0.0</t>
+  </si>
+  <si>
+    <t>0.968+/-0.001</t>
+  </si>
+  <si>
+    <t>0.949+/-0.013</t>
+  </si>
+  <si>
+    <t>0.935+/-0.002</t>
+  </si>
+  <si>
+    <t>0.912+/-0.014</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>10.319+/-0.3</t>
+  </si>
+  <si>
+    <t>0.906+/-0.005</t>
+  </si>
+  <si>
+    <t>0.897+/-0.0</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>0.974+/-0.002</t>
+  </si>
+  <si>
+    <t>0.97+/-0.009</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>0.773+/-0.015</t>
+  </si>
+  <si>
+    <t>0.753+/-0.027</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.913+/-0.039</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.99+/-0.0</t>
+  </si>
+  <si>
+    <t>0.986+/-0.0</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>0.977+/-0.001</t>
+  </si>
+  <si>
+    <t>0.964+/-0.012</t>
+  </si>
+  <si>
+    <t>0.969</t>
   </si>
   <si>
     <t>0.974+/-0.001</t>
   </si>
   <si>
-    <t>0.957+/-0.011</t>
-  </si>
-  <si>
-    <t>0.955</t>
-  </si>
-  <si>
-    <t>0.922+/-0.002</t>
-  </si>
-  <si>
-    <t>0.895+/-0.014</t>
-  </si>
-  <si>
-    <t>0.893</t>
-  </si>
-  <si>
-    <t>9.816+/-0.149</t>
-  </si>
-  <si>
-    <t>0.933+/-0.001</t>
-  </si>
-  <si>
-    <t>0.927+/-0.0</t>
-  </si>
-  <si>
-    <t>0.929</t>
-  </si>
-  <si>
-    <t>0.949+/-0.001</t>
-  </si>
-  <si>
-    <t>0.944+/-0.013</t>
-  </si>
-  <si>
-    <t>0.87+/-0.003</t>
-  </si>
-  <si>
-    <t>0.861+/-0.013</t>
-  </si>
-  <si>
-    <t>0.865</t>
-  </si>
-  <si>
-    <t>2.044+/-0.086</t>
-  </si>
-  <si>
-    <t>0.964+/-0.001</t>
-  </si>
-  <si>
-    <t>0.947+/-0.0</t>
-  </si>
-  <si>
-    <t>0.942</t>
-  </si>
-  <si>
-    <t>0.968+/-0.002</t>
-  </si>
-  <si>
-    <t>0.948+/-0.014</t>
-  </si>
-  <si>
-    <t>0.941</t>
-  </si>
-  <si>
-    <t>0.936+/-0.001</t>
-  </si>
-  <si>
-    <t>0.91+/-0.014</t>
-  </si>
-  <si>
-    <t>0.904</t>
-  </si>
-  <si>
-    <t>8.655+/-0.151</t>
-  </si>
-  <si>
-    <t>0.905+/-0.006</t>
-  </si>
-  <si>
-    <t>0.898+/-0.0</t>
-  </si>
-  <si>
-    <t>0.887</t>
-  </si>
-  <si>
-    <t>0.975+/-0.003</t>
-  </si>
-  <si>
-    <t>0.972+/-0.008</t>
-  </si>
-  <si>
-    <t>0.976</t>
-  </si>
-  <si>
-    <t>0.771+/-0.018</t>
-  </si>
-  <si>
-    <t>0.753+/-0.032</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.784+/-0.035</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.99+/-0.0</t>
-  </si>
-  <si>
-    <t>0.986+/-0.0</t>
-  </si>
-  <si>
-    <t>0.988</t>
-  </si>
-  <si>
-    <t>0.977+/-0.001</t>
-  </si>
-  <si>
-    <t>0.964+/-0.012</t>
-  </si>
-  <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>0.968+/-0.013</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
-    <t>7.463+/-0.114</t>
-  </si>
-  <si>
-    <t>0.984+/-0.0</t>
+    <t>9.328+/-0.724</t>
+  </si>
+  <si>
+    <t>0.985+/-0.0</t>
   </si>
   <si>
     <t>0.982+/-0.0</t>
@@ -233,31 +233,31 @@
     <t>0.983</t>
   </si>
   <si>
-    <t>0.952+/-0.002</t>
-  </si>
-  <si>
-    <t>0.944+/-0.017</t>
-  </si>
-  <si>
-    <t>0.97+/-0.002</t>
-  </si>
-  <si>
-    <t>0.965+/-0.012</t>
-  </si>
-  <si>
-    <t>0.958</t>
-  </si>
-  <si>
-    <t>1.809+/-0.042</t>
+    <t>0.952+/-0.001</t>
+  </si>
+  <si>
+    <t>0.945+/-0.017</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.972+/-0.001</t>
+  </si>
+  <si>
+    <t>0.967+/-0.013</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>1.99+/-0.078</t>
   </si>
   <si>
     <t>0.993+/-0.001</t>
   </si>
   <si>
-    <t>0.985+/-0.0</t>
-  </si>
-  <si>
-    <t>0.985</t>
+    <t>0.984</t>
   </si>
   <si>
     <t>0.98+/-0.002</t>
@@ -266,46 +266,46 @@
     <t>0.958+/-0.012</t>
   </si>
   <si>
-    <t>0.965</t>
-  </si>
-  <si>
-    <t>0.986+/-0.002</t>
-  </si>
-  <si>
-    <t>0.968+/-0.014</t>
-  </si>
-  <si>
-    <t>7.577+/-0.123</t>
-  </si>
-  <si>
-    <t>0.894+/-0.012</t>
-  </si>
-  <si>
-    <t>0.888+/-0.0</t>
-  </si>
-  <si>
-    <t>0.911</t>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>0.985+/-0.003</t>
+  </si>
+  <si>
+    <t>0.969+/-0.013</t>
+  </si>
+  <si>
+    <t>8.332+/-0.354</t>
+  </si>
+  <si>
+    <t>0.908+/-0.006</t>
+  </si>
+  <si>
+    <t>0.904+/-0.0</t>
+  </si>
+  <si>
+    <t>0.909</t>
   </si>
   <si>
     <t>0.988+/-0.001</t>
   </si>
   <si>
-    <t>0.985+/-0.007</t>
+    <t>0.985+/-0.006</t>
   </si>
   <si>
     <t>0.99</t>
   </si>
   <si>
-    <t>0.472+/-0.061</t>
-  </si>
-  <si>
-    <t>0.445+/-0.077</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>0.654+/-0.018</t>
+    <t>0.545+/-0.03</t>
+  </si>
+  <si>
+    <t>0.526+/-0.049</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>1.149+/-0.142</t>
   </si>
 </sst>
 </file>
@@ -694,13 +694,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
@@ -714,13 +714,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -734,13 +734,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -754,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -774,13 +774,13 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -794,13 +794,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -814,10 +814,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -834,10 +834,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -854,10 +854,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -871,13 +871,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
@@ -930,7 +930,7 @@
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>87</v>
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>88</v>
@@ -1027,7 +1027,7 @@
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -1044,10 +1044,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>84</v>
@@ -1064,10 +1064,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
         <v>85</v>
@@ -1084,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -1101,13 +1101,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
         <v>86</v>
